--- a/aws_info.xlsx
+++ b/aws_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oracle\Desktop\terraformPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oracle\Documents\GitHub\Excel-lent--Terraform-ed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{F5B39273-3BC8-454F-89FA-A45E2EA32EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF6631-EBC3-47A3-A718-F31B62F35335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="IngEg">Table3[Description]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,11 +223,7 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -284,7 +279,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -310,7 +309,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7683BB41-F69E-45C8-BC75-7A12E3C88724}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7683BB41-F69E-45C8-BC75-7A12E3C88724}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:G1048576" xr:uid="{3AFFF22E-D208-4B0C-B692-25CA5985C904}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DDAF89EA-BAB0-4594-B2C7-4133AA5DBCD0}" name="Name"/>
@@ -326,7 +325,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CED7F2DE-93A0-4D0B-9EC6-4C0223C84DAD}" name="Table2" displayName="Table2" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CED7F2DE-93A0-4D0B-9EC6-4C0223C84DAD}" name="Table2" displayName="Table2" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:H1048576" xr:uid="{9106E5AB-F69C-4945-9197-4FCF8F26C390}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{65E357BD-2392-4969-92C1-DC17FC0F7995}" name="Name"/>
@@ -343,7 +342,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBBE5F88-67DF-4507-B0D0-8DC748D2742E}" name="Table3" displayName="Table3" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBBE5F88-67DF-4507-B0D0-8DC748D2742E}" name="Table3" displayName="Table3" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:F1048576" xr:uid="{12673455-FFF5-4F9D-8EF1-2B672F2E94BD}"/>
   <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{5A4BA306-66F7-44F9-9C24-792A4EAF0815}" name="Type"/>
@@ -358,7 +357,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{25A16AEE-021E-481A-AD24-6009F81BE636}" name="Table4" displayName="Table4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{25A16AEE-021E-481A-AD24-6009F81BE636}" name="Table4" displayName="Table4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C1048576" xr:uid="{204705B0-4F0D-49F4-98F9-1BF0FCC0AC42}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EDF53D39-521E-498D-81C9-8BECCFAC358A}" name="Key Name"/>
@@ -370,7 +369,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCF7739D-A6CC-47AC-8000-45CA803521A8}" name="Table5" displayName="Table5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCF7739D-A6CC-47AC-8000-45CA803521A8}" name="Table5" displayName="Table5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:C1048576" xr:uid="{00F5110B-9D83-469A-936C-BA9FB317AA80}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{30E77750-F6B2-4A68-80B6-F72F60555B2A}" name="Region"/>
@@ -647,7 +646,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +767,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +849,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +974,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1019,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
